--- a/target/classes/com/att/keyword/scenarios/SecureCheckout.xlsx
+++ b/target/classes/com/att/keyword/scenarios/SecureCheckout.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="test1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="test" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="test2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="test3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
   <si>
     <t>test step</t>
   </si>
@@ -59,19 +60,19 @@
     <t>select entertainment packages</t>
   </si>
   <si>
-    <t>linkText=ENTERTAINMENT</t>
+    <t>linkText=PREMIER</t>
   </si>
   <si>
     <t>click securce checkout</t>
   </si>
   <si>
-    <t>xpath=//*[@id="__next"]/div[3]/div[1]/div[3]/a</t>
+    <t>linkText=Secure checkout ($139.99/mo.)</t>
   </si>
   <si>
     <t>click existing user</t>
   </si>
   <si>
-    <t>xpath=//*[@id="mui-p-22265-P-notCreated"]/div[1]/div/div/div/button[2]</t>
+    <t>xpath=/html/body/div[1]/div[1]/div[2]/div/div/div[8]/div[1]/div[1]/div/div/div/button[2]</t>
   </si>
   <si>
     <t>enter username</t>
@@ -111,6 +112,21 @@
   </si>
   <si>
     <t>Looks like you already have a AT&amp;T TV account. Create a new user Account or verify new User Id.</t>
+  </si>
+  <si>
+    <t>test_283851874@att.com</t>
+  </si>
+  <si>
+    <t>Demo_110920</t>
+  </si>
+  <si>
+    <t>Looks like you already have a TV service with us. Please call 877.981.9710 to place your AT&amp;T TV order.</t>
+  </si>
+  <si>
+    <t>test_256268868@att.com</t>
+  </si>
+  <si>
+    <t>Demo_020321</t>
   </si>
 </sst>
 </file>
@@ -173,6 +189,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -382,6 +402,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="27.0"/>
     <col customWidth="1" min="2" max="2" width="57.29"/>
+    <col customWidth="1" min="4" max="4" width="84.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -427,10 +448,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -444,7 +465,7 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -514,7 +535,7 @@
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -534,7 +555,7 @@
       <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -558,6 +579,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="27.0"/>
     <col customWidth="1" min="2" max="2" width="57.29"/>
+    <col customWidth="1" min="4" max="4" width="84.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -620,7 +642,7 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -634,6 +656,183 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.0"/>
+    <col customWidth="1" min="2" max="2" width="57.29"/>
+    <col customWidth="1" min="4" max="4" width="84.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -642,6 +841,76 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
